--- a/biology/Botanique/Phyllanthus_brasiliensis/Phyllanthus_brasiliensis.xlsx
+++ b/biology/Botanique/Phyllanthus_brasiliensis/Phyllanthus_brasiliensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Phyllanthus brasiliensis est une espèce de plantes à fleurs de la famille des Phyllanthaceae (anciennement de Euphorbiaceae). C'est un arbuste tropical trouvé en Amérique du Sud.
-Il est connu en Guyane sous les noms de Counami [Kounanmi], Counami petites feuilles [Kounanmi-ti-féy] (Créole), Sinapu wibumna (Palikur), Conambi, Conami (Portugais)[4].
-Au Venezuela, on l'appelle Barbasco, Caicareño[5], et au Guyana Samll-leaf Kunami, Huri[6].
+Il est connu en Guyane sous les noms de Counami [Kounanmi], Counami petites feuilles [Kounanmi-ti-féy] (Créole), Sinapu wibumna (Palikur), Conambi, Conami (Portugais).
+Au Venezuela, on l'appelle Barbasco, Caicareño, et au Guyana Samll-leaf Kunami, Huri.
 </t>
         </is>
       </c>
@@ -513,12 +525,14 @@
           <t>Liste des sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (7 février 2022)[7] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (7 février 2022) :
 sous-espèce Phyllanthus brasiliensis subsp. brasiliensis (Aubl.) Poir.
 sous-espèce Phyllanthus brasiliensis subsp. glaber (Pax &amp; K.Hoffm.) G.L.Webster
-Selon Tropicos                                           (7 février 2022)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (7 février 2022) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Phyllanthus brasiliensis subsp. brasiliensis
 sous-espèce Phyllanthus brasiliensis var. genuinus (Aubl.) Müll., 1866
 sous-espèce Phyllanthus brasiliensis subsp. glaber (Pax &amp; K. Hoffm.) G.L. Webster, 2003
@@ -550,7 +564,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Phyllanthus brasiliensis est un arbuste ou un petit arbre, monoïque, à floraison mal-odorante, atteignant 3 m de haut.
 Les branches cylindriques portent des rameaux florifèrees, glabres, caducs, bipennés (axe des rameaux avec (1)2–4 branches latérales) et longs d'environ 20 cm.
@@ -565,7 +581,7 @@
 Les fleurs femelles comportent des pédicelles légèrement épaissis sous les fleurs, 5-6 sépales de forme obovale à oblongue, un peu plus longs que ceux du mâle, 6 glandes discales connées dans un anneau (disque patelliforme, à 5 angles ou diversement lobé, parfois asymétrique) et quelque peu papilleuses, et 1 ovaire hirtelleux, à 3 loges.
 Les styles sont séparés, bifides, avec des branches recourbées.
 Le fruit est une capsule de 2,5 mm de diamètre, vaguement rugueuse sur le dessus.
-Il contient 10-12 graines quasiment appariées, très délicates, souvent indistinctement striées de façon longitudinale, et avec des bandes transversales formées par des cellules épidermiques hygroscopiques claviformes[8],[5],[9].
+Il contient 10-12 graines quasiment appariées, très délicates, souvent indistinctement striées de façon longitudinale, et avec des bandes transversales formées par des cellules épidermiques hygroscopiques claviformes.
 </t>
         </is>
       </c>
@@ -594,10 +610,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Phyllanthus brasiliensis est présent en Colombie, au Venezuela (Bolívar), au Guyana, au Suriname, en Guyane et au nord du Brésil[5],[9].
-Cette espèce a été signalée par erreur ailleurs en Amérique du Sud (souvent confondu avec Phyllanthus piscatorum H.B.K.)[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phyllanthus brasiliensis est présent en Colombie, au Venezuela (Bolívar), au Guyana, au Suriname, en Guyane et au nord du Brésil,.
+Cette espèce a été signalée par erreur ailleurs en Amérique du Sud (souvent confondu avec Phyllanthus piscatorum H.B.K.).
 </t>
         </is>
       </c>
@@ -626,12 +644,14 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Phyllanthus brasiliensis est un arbuste au feuillage léger, poussant dans les forêts semi-caduques du Venezuela autour de 100–200 m d'altitude[5].
-Phyllanthus brasiliensis a été introduit en Guyane (vraisemblablement depuis le Pará au XVIIIe siècle), et y est cultivé depuis (non naturalisé)[4].
-Il est aussi cultivé au Guyana[6].
-L'anatomie du bois de Phyllanthus brasiliensis a été décrite[10].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phyllanthus brasiliensis est un arbuste au feuillage léger, poussant dans les forêts semi-caduques du Venezuela autour de 100–200 m d'altitude.
+Phyllanthus brasiliensis a été introduit en Guyane (vraisemblablement depuis le Pará au XVIIIe siècle), et y est cultivé depuis (non naturalisé).
+Il est aussi cultivé au Guyana.
+L'anatomie du bois de Phyllanthus brasiliensis a été décrite.
 </t>
         </is>
       </c>
@@ -660,17 +680,19 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En Guyane, Phyllanthus brasiliensis se raréfie mais encore est cultivé et employé pour la pêche à la nivrée (tout comme Clibadium qui porte aussi le nom de Kunami)[11], et comme plante magique, chez quelques familles créoles de l'Orapu et de la Comté. Déjà connue en Guyane pour cet usage à l'époque Aublet, on suppose qu'elle fut introduite au cours du XVIIIe siècle et que son usage n'a pas connu un essor très important[4].
-Son usage comme ichtyotoxique est aussi connu aux Antilles[12], chez les amérindiens du nord du Guyana[6] et en Amazonie chez les Makú[13].
-Sur le poisson rouge Carassius auratus, l'intoxication est mortelle dès la dose de : 0,08 g/1000 ml pour les racines, 0,21 g/1 ml pour les feuilles, 0,25 g/1 ml pour les tiges[4].
-Les composés ichtyotoxiques sont des lignanes : la diphylline et la justicidine B (composé le plus toxique avec DL. : 10−6 dans l'eau)[14].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Guyane, Phyllanthus brasiliensis se raréfie mais encore est cultivé et employé pour la pêche à la nivrée (tout comme Clibadium qui porte aussi le nom de Kunami), et comme plante magique, chez quelques familles créoles de l'Orapu et de la Comté. Déjà connue en Guyane pour cet usage à l'époque Aublet, on suppose qu'elle fut introduite au cours du XVIIIe siècle et que son usage n'a pas connu un essor très important.
+Son usage comme ichtyotoxique est aussi connu aux Antilles, chez les amérindiens du nord du Guyana et en Amazonie chez les Makú.
+Sur le poisson rouge Carassius auratus, l'intoxication est mortelle dès la dose de : 0,08 g/1000 ml pour les racines, 0,21 g/1 ml pour les feuilles, 0,25 g/1 ml pour les tiges.
+Les composés ichtyotoxiques sont des lignanes : la diphylline et la justicidine B (composé le plus toxique avec DL. : 10−6 dans l'eau).
 Les Palikur de Guyane versent la macération de Phyllanthus brasiliensis dans les entrées des fourmilières pour détruire les fourmis Solenopsis et les fourmis-manioc (Atta spp.).
-Tous les organes sont aussi larvicides sur Aedes aegypti. Cette activité insecticide est liée à des composés autres que ceux ichtyotoxiques cités précédemment[4].
-Les extraits de Phyllanthus brasiliensis présentent des activités anti-inflammatoires et anti-nociceptives[15].
-Parmi d'autres subtances, on a aussi trouvé dans Phyllanthus brasiliensis, de la 5-O-β-D-glucopyranosyljusticidine B, de la justicidine B, de la cleistanthine B, de l'arabelline, 4-O-β-D-apiofuranosyl-(10’”60”)-β-D-glucopyranosyldiphyllin, de la tuberculatine, et de la phyllanthostatine A[16].
-Une espèce proche (Phyllanthus acuminatus Vahl) contient du phyllantoside, un lignane aux propriétés antitumorales[17],[4], et dont on a trouvé une voie de synthèse[18].
+Tous les organes sont aussi larvicides sur Aedes aegypti. Cette activité insecticide est liée à des composés autres que ceux ichtyotoxiques cités précédemment.
+Les extraits de Phyllanthus brasiliensis présentent des activités anti-inflammatoires et anti-nociceptives.
+Parmi d'autres subtances, on a aussi trouvé dans Phyllanthus brasiliensis, de la 5-O-β-D-glucopyranosyljusticidine B, de la justicidine B, de la cleistanthine B, de l'arabelline, 4-O-β-D-apiofuranosyl-(10’”60”)-β-D-glucopyranosyldiphyllin, de la tuberculatine, et de la phyllanthostatine A.
+Une espèce proche (Phyllanthus acuminatus Vahl) contient du phyllantoside, un lignane aux propriétés antitumorales et dont on a trouvé une voie de synthèse.
 </t>
         </is>
       </c>
@@ -699,9 +721,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1775, le botaniste Aublet propose le protologue suivant[19] : 
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1775, le botaniste Aublet propose le protologue suivant : 
 « CONAMI Braſilienſis. (Tabula 354.)
 Frutex  expedalis, ramos plures è caudiée cmictens. Folia alterna, ſubrotunda, acuta, inæqualia, glabra, integerrima, pallidè virentia, ſubſeſſilia. Stipulæ binæ, exiguæ, deciduæ. Flores ceſpitoſi, axillares, nutantes. Singuli pedunculo brevi innixi. Perianthium pallide virens. Fructum maturum obſervare non mihi licuit, neque maſculum fruticem.
 Habitat in hortis Caïennæ &amp; Guianæ, ob uſum ad inebriandos piſces.
